--- a/Analise_Compartiva_Futebol.xlsx
+++ b/Analise_Compartiva_Futebol.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2023\Excel_Analise_Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF5015-08D0-480B-94B6-16FEA09D7BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF7FE3-851D-49C8-BB82-CDC4278F5E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F2BB2E4-A89C-46FC-9125-6ACCD337CF8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Nome</t>
   </si>
@@ -78,6 +79,66 @@
   </si>
   <si>
     <t>Média</t>
+  </si>
+  <si>
+    <t>Melhores Notas</t>
+  </si>
+  <si>
+    <t>Fundamentos</t>
+  </si>
+  <si>
+    <t>Nomes</t>
+  </si>
+  <si>
+    <t>Melhor Fundamento</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Beto</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Rio</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Minas</t>
+  </si>
+  <si>
+    <t>Indice só na coluna B</t>
+  </si>
+  <si>
+    <t>Índice na coluna A e B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice por linha(linha 3 e coluna 2) </t>
+  </si>
+  <si>
+    <t>Utilizando o corresp diretamente na função índice</t>
+  </si>
+  <si>
+    <t>Utilizando o procv</t>
   </si>
 </sst>
 </file>
@@ -121,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -157,11 +218,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -179,11 +251,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -221,86 +300,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -459,25 +458,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,7 +552,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -1265,7 +1264,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$A$15" fmlaRange="$B$6:$B$11" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$A$15" fmlaRange="$B$6:$B$11" noThreeD="1" sel="6" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1281,7 +1280,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>180976</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -1355,7 +1354,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B3F354-5B7C-F088-A162-83E831FE336C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1392,23 +1391,23 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C669B5-3A3D-C508-8239-931FD40E5678}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1443,7 @@
         <xdr:cNvPr id="3" name="Retângulo: Cantos Arredondados 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538C210D-CFA0-97FC-FF49-D356624BA5DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1497,6 +1496,139 @@
             <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="1038225"/>
+          <a:ext cx="5934075" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2495550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2049" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3343275" y="1095375"/>
+          <a:ext cx="5724525" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se você quiser encontrar o valor na terceira linha e segunda coluna (que seria “30” neste caso)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1802,24 +1934,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0986FAF8-204F-4CA2-B8DC-6BD2C790550F}">
-  <dimension ref="A5:J18"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1856,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -1880,7 +2025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1912,7 +2057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1944,7 +2089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1964,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ref="H7:H11" si="1">G9*2</f>
+        <f t="shared" ref="H9:H11" si="1">G9*2</f>
         <v>4</v>
       </c>
       <c r="I9" s="6">
@@ -1976,7 +2121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2008,7 +2153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2032,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" ref="I7:I11" si="2">H11*2</f>
+        <f t="shared" ref="I11" si="2">H11*2</f>
         <v>4</v>
       </c>
       <c r="J11" s="1">
@@ -2040,7 +2185,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2062,105 +2213,252 @@
       <c r="I14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:I15" ca="1" si="3">OFFSET(C5,$A$15,0,1,5)</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="C15" s="4">
-        <f ca="1">OFFSET(C5,$A$15,0,1,5)</f>
+      <c r="I15" s="4">
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="D15" s="4">
-        <f ca="1">OFFSET(D5,$A$15,0,1,5)</f>
-        <v>3</v>
-      </c>
-      <c r="E15" s="4">
-        <f ca="1">OFFSET(E5,$A$15,0,1,5)</f>
+      <c r="J15" s="11">
+        <f ca="1">LARGE(C15:I15,1)</f>
+        <v>9</v>
+      </c>
+      <c r="K15" s="11">
+        <f ca="1">MATCH(J15,C15:I15,0)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="4">
-        <f ca="1">OFFSET(F5,$A$15,0,1,5)</f>
-        <v>4</v>
-      </c>
-      <c r="G15" s="4">
-        <f ca="1">OFFSET(G5,$A$15,0,1,5)</f>
-        <v>9</v>
-      </c>
-      <c r="H15" s="4">
-        <f ca="1">OFFSET(H5,$A$15,0,1,5)</f>
-        <v>9</v>
-      </c>
-      <c r="I15" s="4">
-        <f ca="1">OFFSET(I5,$A$15,0,1,5)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" t="str">
+        <f ca="1">INDEX(C14:I14,K15)</f>
+        <v>Espaço</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <f ca="1">OFFSET(C5,$A$16,0,1,5)</f>
+        <f t="shared" ref="C16:I16" ca="1" si="4">OFFSET(C5,$A$16,0,1,5)</f>
         <v>6</v>
       </c>
       <c r="D16" s="3">
-        <f ca="1">OFFSET(D5,$A$16,0,1,5)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="E16" s="3">
-        <f ca="1">OFFSET(E5,$A$16,0,1,5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="F16" s="3">
-        <f ca="1">OFFSET(F5,$A$16,0,1,5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
       <c r="G16" s="3">
-        <f ca="1">OFFSET(G5,$A$16,0,1,5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H16" s="3">
-        <f ca="1">OFFSET(H5,$A$16,0,1,5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="I16" s="3">
-        <f ca="1">OFFSET(I5,$A$16,0,1,5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="11">
+        <f ca="1">LARGE(C16:I16,1)</f>
+        <v>8</v>
+      </c>
+      <c r="K16" s="11">
+        <f ca="1">MATCH(J16,C16:I16,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L16" t="str">
+        <f ca="1">INDEX(C14:I14,K16)</f>
+        <v>Espaço</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
-      <c r="D18" s="5">
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="G19" s="5">
+        <f>MATCH(B20,C5:C11,0)</f>
+        <v>7</v>
+      </c>
+      <c r="H19" s="5">
+        <f>MATCH(B21,D5:D11,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I19" s="5">
+        <f>MATCH(B22,E6:E11,0)</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="5">
+        <f>MATCH(B24,G6:G11,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="5">
+        <f>MATCH(B25,H6:H11,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L19" s="5">
+        <f>MATCH(B26,I6:I11,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <f>MAX(C6:C11)</f>
         <v>8</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
-        <f>MATCH(D18,C5:C11,0)</f>
+      <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="5" t="str">
-        <f>INDEX(B5:C11,F18,1)</f>
+      <c r="D20" s="2" t="str">
+        <f>INDEX(B5:B11,G19,1)</f>
         <v>Henrique</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f>MAX(D6:D11)</f>
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>INDEX(B6:B11:D5:D11,H19,1)</f>
+        <v>Passorola</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <f>MAX(E6:E11)</f>
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f>E5</f>
+        <v>Mobilidade</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>INDEX(B6:B11,I19,1)</f>
+        <v>Passorola</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <f>MAX(F6:F11)</f>
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f>F5</f>
+        <v>Espaço</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>INDEX(B6:B11:F6:F11,I19,1)</f>
+        <v>Passorola</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <f>MAX(G6:G11)</f>
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f>G5</f>
+        <v>Unidade Ofensiva</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>INDEX($B$6:$B$11:G6:G11,J19,1)</f>
+        <v>Lucas Alves</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f>MAX(H6:H11)</f>
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f>H5</f>
+        <v>Equilibrio</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>INDEX($B$6:$B$11:H6:H11,K19,1)</f>
+        <v>Marcio</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <f>MAX(I6:I11)</f>
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f>I5</f>
+        <v>Concentração</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f>INDEX($B$6:$B$11:I6:I11,L19,1)</f>
+        <v>Lucas Alves</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6:J11">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:I11">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2219,4 +2517,133 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9538E789-F62A-4078-9904-6C8CBE145AE1}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="9">
+        <f>INDEX(C2:C5,3)</f>
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <f>INDEX(B2:C5,3,2)</f>
+        <v>30</v>
+      </c>
+      <c r="H2" s="9">
+        <f>INDEX(B4:D4,2)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9">
+        <v>32</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="str">
+        <f>INDEX(B3:B5,MATCH(SMALL(C3:C5,1),C3:C5,0),1)</f>
+        <v>Ana</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="9">
+        <f>VLOOKUP(B4,B3:C5,2,TRUE)</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Analise_Compartiva_Futebol.xlsx
+++ b/Analise_Compartiva_Futebol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2023\Excel_Analise_Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF7FE3-851D-49C8-BB82-CDC4278F5E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3AE810-6E7A-4CDE-8205-2073F30DEB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F2BB2E4-A89C-46FC-9125-6ACCD337CF8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Nome</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Utilizando o procv</t>
+  </si>
+  <si>
+    <t>Pior Fundamento</t>
+  </si>
+  <si>
+    <t>Observação</t>
   </si>
 </sst>
 </file>
@@ -233,14 +239,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,7 +261,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,22 +467,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
@@ -1264,7 +1273,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$A$15" fmlaRange="$B$6:$B$11" noThreeD="1" sel="6" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$A$15" fmlaRange="$B$6:$B$11" noThreeD="1" sel="4" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1936,35 +1945,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0986FAF8-204F-4CA2-B8DC-6BD2C790550F}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1986,14 +1996,17 @@
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2029,7 @@
         <f>G6*2</f>
         <v>2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <f>H6*2</f>
         <v>4</v>
       </c>
@@ -2024,8 +2037,12 @@
         <f>MEDIAN(C6:I6)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" t="str">
+        <f>IF(J6&lt;5,"Melhorar tudo",IF(J6&gt;5,"Ok","Vc é a media"))</f>
+        <v>Vc é a media</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +2065,7 @@
         <f>G7*1</f>
         <v>9</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <f>H7*1</f>
         <v>9</v>
       </c>
@@ -2056,8 +2073,12 @@
         <f t="shared" ref="J7:J11" si="0">MEDIAN(C7:I7)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" t="str">
+        <f>IF(J7&lt;5,"Melhorar tudo",IF(J7&gt;=5,"Ok","Vc é a media"))</f>
+        <v>Melhorar tudo</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2080,7 +2101,7 @@
         <f>G8*1</f>
         <v>8</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <f>H8*1</f>
         <v>8</v>
       </c>
@@ -2088,8 +2109,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" t="str">
+        <f t="shared" ref="K7:K11" si="1">IF(J8&lt;5,"Melhorar tudo",IF(J8&gt;5,"Ok","Vc é a media"))</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2109,10 +2134,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ref="H9:H11" si="1">G9*2</f>
+        <f t="shared" ref="H9:H11" si="2">G9*2</f>
         <v>4</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <f>H9*1</f>
         <v>4</v>
       </c>
@@ -2120,8 +2145,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>Melhorar tudo</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2141,10 +2170,10 @@
         <v>5</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <f>H10*0.5</f>
         <v>5</v>
       </c>
@@ -2152,8 +2181,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" t="str">
+        <f>IF(J10&lt;5,"Melhorar tudo",IF(J10&gt;5,"Ok","Vc é a media"))</f>
+        <v>Vc é a media</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2173,25 +2206,29 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I11" s="6">
-        <f t="shared" ref="I11" si="2">H11*2</f>
+      <c r="I11" s="4">
+        <f t="shared" ref="I11" si="3">H11*2</f>
         <v>4</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2213,105 +2250,100 @@
       <c r="I14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" ref="C15:I15" ca="1" si="4">OFFSET(C5,$A$15,0,1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:I15" ca="1" si="3">OFFSET(C5,$A$15,0,1,5)</f>
-        <v>8</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="F15" s="10">
+        <f t="shared" ca="1" si="4"/>
         <v>7</v>
       </c>
-      <c r="E15" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="G15" s="10">
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H15" s="10">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="J15" s="11">
-        <f ca="1">LARGE(C15:I15,1)</f>
-        <v>9</v>
-      </c>
-      <c r="K15" s="11">
-        <f ca="1">MATCH(J15,C15:I15,0)</f>
+      <c r="I15" s="10">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="L15" t="str">
-        <f ca="1">INDEX(C14:I14,K15)</f>
-        <v>Espaço</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="10" t="str">
+        <f ca="1">INDEX(C14:I14,MATCH(LARGE(C15:I15,1),C15:I15))</f>
+        <v>Concentração</v>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f ca="1">INDEX(D14:J14,MATCH(SMALL(D15:J15,1),D15:J15))</f>
+        <v>Unidade Ofensiva</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:I16" ca="1" si="4">OFFSET(C5,$A$16,0,1,5)</f>
+      <c r="C16" s="9">
+        <f t="shared" ref="C16:I16" ca="1" si="5">OFFSET(C5,$A$16,0,1,5)</f>
         <v>6</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" ca="1" si="4"/>
+      <c r="D16" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>7</v>
       </c>
-      <c r="E16" s="3">
-        <f t="shared" ca="1" si="4"/>
+      <c r="E16" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" ca="1" si="4"/>
+      <c r="F16" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" ca="1" si="4"/>
+      <c r="G16" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="H16" s="3">
-        <f t="shared" ca="1" si="4"/>
+      <c r="H16" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I16" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="J16" s="11">
-        <f ca="1">LARGE(C16:I16,1)</f>
-        <v>8</v>
-      </c>
-      <c r="K16" s="11">
-        <f ca="1">MATCH(J16,C16:I16,0)</f>
-        <v>4</v>
-      </c>
-      <c r="L16" t="str">
-        <f ca="1">INDEX(C14:I14,K16)</f>
+      <c r="J16" s="9" t="str">
+        <f ca="1">INDEX(C14:I14,MATCH(LARGE(C16:I16,1),C16:I16))</f>
         <v>Espaço</v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f ca="1">INDEX(D14:J14,MATCH(SMALL(D16:J16,1),D16:J16))</f>
+        <v>Unidade Ofensiva</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C17"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -2323,28 +2355,28 @@
       <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="G19" s="5">
+      <c r="E19" s="7"/>
+      <c r="G19" s="3">
         <f>MATCH(B20,C5:C11,0)</f>
         <v>7</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <f>MATCH(B21,D5:D11,0)</f>
         <v>4</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <f>MATCH(B22,E6:E11,0)</f>
         <v>3</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="3">
         <f>MATCH(B24,G6:G11,0)</f>
         <v>2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="3">
         <f>MATCH(B25,H6:H11,0)</f>
         <v>5</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="3">
         <f>MATCH(B26,I6:I11,0)</f>
         <v>2</v>
       </c>
@@ -2524,7 +2556,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,24 +2591,24 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <f>INDEX(C2:C5,3)</f>
         <v>30</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <f>INDEX(B2:C5,3,2)</f>
         <v>30</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <f>INDEX(B4:D4,2)</f>
         <v>30</v>
       </c>
@@ -2585,13 +2617,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2599,13 +2631,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>30</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
@@ -2616,13 +2648,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>32</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H5" t="str">
@@ -2631,12 +2663,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <f>VLOOKUP(B4,B3:C5,2,TRUE)</f>
         <v>30</v>
       </c>

--- a/Analise_Compartiva_Futebol.xlsx
+++ b/Analise_Compartiva_Futebol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2023\Excel_Analise_Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3AE810-6E7A-4CDE-8205-2073F30DEB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2466E5-1B17-44D0-8331-A8F626784FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F2BB2E4-A89C-46FC-9125-6ACCD337CF8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2F2BB2E4-A89C-46FC-9125-6ACCD337CF8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,37 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1946,7 +1970,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" ref="K7:K11" si="1">IF(J8&lt;5,"Melhorar tudo",IF(J8&gt;5,"Ok","Vc é a media"))</f>
+        <f t="shared" ref="K8:K11" si="1">IF(J8&lt;5,"Melhorar tudo",IF(J8&gt;5,"Ok","Vc é a media"))</f>
         <v>Ok</v>
       </c>
     </row>
@@ -2389,8 +2413,8 @@
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f>INDEX(B5:B11,G19,1)</f>
+      <c r="D20" s="2" t="str" cm="1">
+        <f t="array" ref="D20">INDEX(B5:B11,G19,1)</f>
         <v>Henrique</v>
       </c>
     </row>
@@ -2556,7 +2580,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
